--- a/TEMOA_Europe_Results/3_Results_ct+_nuc+/_3_Electricity.xlsx
+++ b/TEMOA_Europe_Results/3_Results_ct+_nuc+/_3_Electricity.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="55">
   <si>
     <t>tech</t>
   </si>
@@ -137,9 +137,6 @@
     <t>ELC_WIN_OFF_NEW</t>
   </si>
   <si>
-    <t>ELC_SOL_PV_EXS</t>
-  </si>
-  <si>
     <t>ELC_SOL_PV_CEN_NEW</t>
   </si>
   <si>
@@ -149,13 +146,10 @@
     <t>ELC_SOL_CSP_3_NEW</t>
   </si>
   <si>
-    <t>ELC_MAR_EXS</t>
-  </si>
-  <si>
     <t>ELC_MAR_TDL_NEW</t>
   </si>
   <si>
-    <t>ELC_BIO_CRP_GSF_CCS_NEW</t>
+    <t>ELC_STG_CEN_BTT_NEW</t>
   </si>
   <si>
     <t>IMP_ELC_AFR</t>
@@ -591,7 +585,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -640,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2">
-        <v>2113.316643155</v>
+        <v>1967.145926676913</v>
       </c>
       <c r="E2">
-        <v>2113.316643155</v>
+        <v>1967.145926676913</v>
       </c>
       <c r="F2">
-        <v>874.1022335999999</v>
+        <v>874.1022336</v>
       </c>
       <c r="G2">
-        <v>582.7348224</v>
+        <v>582.7348224000001</v>
       </c>
       <c r="H2">
         <v>291.3674111999999</v>
@@ -678,13 +672,13 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3">
-        <v>246.3071779377625</v>
+        <v>275.2997039596148</v>
       </c>
       <c r="E3">
-        <v>173.88602784</v>
+        <v>179.4533224807022</v>
       </c>
       <c r="F3">
         <v>130.41452088</v>
@@ -716,19 +710,19 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D4">
-        <v>783.3261789072386</v>
+        <v>900.5043693634728</v>
       </c>
       <c r="E4">
-        <v>813.2573290050001</v>
+        <v>953.8607508423845</v>
       </c>
       <c r="F4">
-        <v>691.5532455199999</v>
+        <v>691.5532455199996</v>
       </c>
       <c r="G4">
-        <v>104.2955998229212</v>
+        <v>126.8011743747015</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -754,7 +748,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D5">
         <v>1941.31571508</v>
@@ -766,10 +760,10 @@
         <v>613.04706792</v>
       </c>
       <c r="G5">
-        <v>408.69804528</v>
+        <v>408.6980452799999</v>
       </c>
       <c r="H5">
-        <v>204.34902264</v>
+        <v>204.3490226399999</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -792,19 +786,19 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D6">
-        <v>597.2161249999995</v>
+        <v>597.2161250000004</v>
       </c>
       <c r="E6">
         <v>307.630284</v>
       </c>
       <c r="F6">
-        <v>319.1705271992336</v>
+        <v>315.5783179110849</v>
       </c>
       <c r="G6">
-        <v>153.8151419999999</v>
+        <v>153.815142</v>
       </c>
       <c r="H6">
         <v>76.90757099999999</v>
@@ -830,16 +824,16 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>545.3581599199999</v>
+        <v>545.3581599199998</v>
       </c>
       <c r="E7">
         <v>984.0236254400003</v>
       </c>
       <c r="F7">
-        <v>1687.152404880768</v>
+        <v>1690.744614168914</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -868,13 +862,13 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D8">
         <v>237.2427148750001</v>
       </c>
       <c r="E8">
-        <v>173.6369645999999</v>
+        <v>173.6369646</v>
       </c>
       <c r="F8">
         <v>121.7100384</v>
@@ -883,7 +877,7 @@
         <v>91.28252879999999</v>
       </c>
       <c r="H8">
-        <v>60.8550192</v>
+        <v>60.85501920000002</v>
       </c>
       <c r="I8">
         <v>30.42750960000001</v>
@@ -906,16 +900,16 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D9">
-        <v>53.99728512499998</v>
+        <v>53.99728512499999</v>
       </c>
       <c r="E9">
         <v>41.49229519999999</v>
       </c>
       <c r="F9">
-        <v>31.11922139999999</v>
+        <v>31.1192214</v>
       </c>
       <c r="G9">
         <v>20.7461476</v>
@@ -944,16 +938,16 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.710740200000149</v>
+        <v>7.710740199999996</v>
       </c>
       <c r="F10">
-        <v>7.710740200000131</v>
+        <v>7.710740199999995</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -982,19 +976,19 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D11">
-        <v>696.4095484746834</v>
+        <v>1192.461611027894</v>
       </c>
       <c r="E11">
-        <v>803.5990583550165</v>
+        <v>824.9815939534418</v>
       </c>
       <c r="F11">
-        <v>753.755189359578</v>
+        <v>764.7324696569032</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>9.281113509428572</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1020,28 +1014,28 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12">
-        <v>1202.201122502677</v>
+        <v>706.1490599494661</v>
       </c>
       <c r="E12">
-        <v>783.1065785810408</v>
+        <v>784.4765618997259</v>
       </c>
       <c r="F12">
-        <v>634.335079109965</v>
+        <v>623.3577988126399</v>
       </c>
       <c r="G12">
-        <v>1057.577611561101</v>
+        <v>1101.191101266206</v>
       </c>
       <c r="H12">
-        <v>832.8541610817257</v>
+        <v>827.9350859157257</v>
       </c>
       <c r="I12">
-        <v>555.2361073878174</v>
+        <v>552.9967726529029</v>
       </c>
       <c r="J12">
-        <v>277.6180536939086</v>
+        <v>276.5772131210952</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1058,19 +1052,19 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D13">
-        <v>26.7602001758</v>
+        <v>26.76020017579999</v>
       </c>
       <c r="E13">
-        <v>26.7602001758</v>
+        <v>43.2</v>
       </c>
       <c r="F13">
         <v>43.2</v>
       </c>
       <c r="G13">
-        <v>26.7602001758</v>
+        <v>26.76020017579999</v>
       </c>
       <c r="H13">
         <v>37.19564503199999</v>
@@ -1079,13 +1073,13 @@
         <v>29.7565160256</v>
       </c>
       <c r="J13">
-        <v>29.55958777638667</v>
+        <v>40.53544813359767</v>
       </c>
       <c r="K13">
-        <v>29.55958777638667</v>
+        <v>29.55958777638666</v>
       </c>
       <c r="L13">
-        <v>15.72687656718048</v>
+        <v>15.6800038818668</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1096,16 +1090,16 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>168.5435981152114</v>
+        <v>139.7849699040593</v>
       </c>
       <c r="F14">
-        <v>248.8662396118318</v>
+        <v>267.2807457180352</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1134,34 +1128,34 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>196.4679812348915</v>
+        <v>196.4679812348914</v>
       </c>
       <c r="F15">
-        <v>381.8406565759856</v>
+        <v>363.4261504697829</v>
       </c>
       <c r="G15">
-        <v>1002.723121750632</v>
+        <v>994.3148191656104</v>
       </c>
       <c r="H15">
-        <v>1318.20683908472</v>
+        <v>1302.769586096574</v>
       </c>
       <c r="I15">
-        <v>1247.713331391589</v>
+        <v>1132.608672133377</v>
       </c>
       <c r="J15">
-        <v>1184.609738615466</v>
+        <v>1140.041972095042</v>
       </c>
       <c r="K15">
-        <v>1125.687032646067</v>
+        <v>1080.539424305085</v>
       </c>
       <c r="L15">
-        <v>1135.103138567363</v>
+        <v>1108.028538076474</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1172,16 +1166,16 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D16">
-        <v>65.02834364399993</v>
+        <v>97.5645589723199</v>
       </c>
       <c r="E16">
-        <v>79.04801366351992</v>
+        <v>85.0541229575614</v>
       </c>
       <c r="F16">
-        <v>109.0271822587199</v>
+        <v>79.63539585518821</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1210,16 +1204,16 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17">
-        <v>125.1409853786399</v>
+        <v>92.60477005031993</v>
       </c>
       <c r="E17">
         <v>92.60477005031991</v>
       </c>
       <c r="F17">
-        <v>103.1856530839199</v>
+        <v>132.5774394874516</v>
       </c>
       <c r="G17">
         <v>193.6962900338398</v>
@@ -1228,16 +1222,16 @@
         <v>193.6962900338398</v>
       </c>
       <c r="I17">
-        <v>193.6962900338398</v>
+        <v>186.0960119447666</v>
       </c>
       <c r="J17">
-        <v>173.0215960146847</v>
+        <v>151.1523228362399</v>
       </c>
       <c r="K17">
         <v>207.6156218176054</v>
       </c>
       <c r="L17">
-        <v>126.1225709519289</v>
+        <v>123.1142820084971</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1248,19 +1242,19 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18">
-        <v>16.4397998242</v>
+        <v>16.43979982420001</v>
       </c>
       <c r="E18">
-        <v>16.4397998242</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>16.4397998242</v>
+        <v>16.43979982420001</v>
       </c>
       <c r="H18">
         <v>6.004354968000008</v>
@@ -1269,13 +1263,13 @@
         <v>13.4434839744</v>
       </c>
       <c r="J18">
-        <v>13.64041222361334</v>
+        <v>2.664551866402336</v>
       </c>
       <c r="K18">
         <v>13.64041222361334</v>
       </c>
       <c r="L18">
-        <v>27.47312343281952</v>
+        <v>27.51999611813321</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1286,13 +1280,13 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D19">
-        <v>3212.261573320001</v>
+        <v>3212.26157332</v>
       </c>
       <c r="E19">
-        <v>2509.125632000001</v>
+        <v>2509.125632000006</v>
       </c>
       <c r="F19">
         <v>2101.5992</v>
@@ -1324,34 +1318,34 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D20">
         <v>85.61842668000011</v>
       </c>
       <c r="E20">
-        <v>561.984367999999</v>
+        <v>561.9843679999942</v>
       </c>
       <c r="F20">
-        <v>525.3908000000001</v>
+        <v>525.3907999999998</v>
       </c>
       <c r="G20">
-        <v>683.1684151200005</v>
+        <v>683.1684151200006</v>
       </c>
       <c r="H20">
-        <v>683.1684151199998</v>
+        <v>683.1684151200004</v>
       </c>
       <c r="I20">
-        <v>683.1684151200004</v>
+        <v>683.1684151200001</v>
       </c>
       <c r="J20">
-        <v>683.1684151200001</v>
+        <v>683.1684151200002</v>
       </c>
       <c r="K20">
         <v>683.1684151199997</v>
       </c>
       <c r="L20">
-        <v>683.1684151200006</v>
+        <v>683.1684151199998</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1362,22 +1356,22 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D21">
-        <v>61.18915130505162</v>
+        <v>55.01307310430077</v>
       </c>
       <c r="E21">
-        <v>31.397926496</v>
+        <v>31.39792649599992</v>
       </c>
       <c r="F21">
-        <v>38.7527386649876</v>
+        <v>41.7024782979797</v>
       </c>
       <c r="G21">
         <v>15.698963248</v>
       </c>
       <c r="H21">
-        <v>7.849481623999996</v>
+        <v>7.849481623999999</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1400,16 +1394,16 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D22">
         <v>109.90296</v>
       </c>
       <c r="E22">
-        <v>87.92236800000002</v>
+        <v>87.92236800000001</v>
       </c>
       <c r="F22">
-        <v>65.941776</v>
+        <v>65.94177600000002</v>
       </c>
       <c r="G22">
         <v>43.961184</v>
@@ -1438,22 +1432,22 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D23">
-        <v>34.31288869494838</v>
+        <v>40.48896689569932</v>
       </c>
       <c r="E23">
-        <v>16.62993214152529</v>
+        <v>16.18899120682385</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>10.39190343332723</v>
+        <v>12.26237283126894</v>
       </c>
       <c r="H23">
-        <v>12.35263993018142</v>
+        <v>14.57602808245175</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1476,25 +1470,25 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D24">
         <v>181.755</v>
       </c>
       <c r="E24">
-        <v>435.4397733624746</v>
+        <v>435.8807142971762</v>
       </c>
       <c r="F24">
-        <v>465.6795306536008</v>
+        <v>462.7297910206086</v>
       </c>
       <c r="G24">
-        <v>402.6974067592347</v>
+        <v>385.4539159201669</v>
       </c>
       <c r="H24">
-        <v>286.5869964599257</v>
+        <v>303.4096510566134</v>
       </c>
       <c r="I24">
-        <v>147.2819610762758</v>
+        <v>141.2754242254172</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1514,7 +1508,7 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1532,13 +1526,13 @@
         <v>55.25289459529412</v>
       </c>
       <c r="I25">
-        <v>63.8095039494723</v>
+        <v>77.17864641882353</v>
       </c>
       <c r="J25">
         <v>55.25289459529412</v>
       </c>
       <c r="K25">
-        <v>75.24918025835294</v>
+        <v>75.24918025835295</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1552,7 +1546,7 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D26">
         <v>137.54</v>
@@ -1564,13 +1558,13 @@
         <v>186.24</v>
       </c>
       <c r="G26">
-        <v>54.52933521791313</v>
+        <v>57.29766907022475</v>
       </c>
       <c r="H26">
-        <v>64.81788903261371</v>
+        <v>62.88351925016252</v>
       </c>
       <c r="I26">
-        <v>64.81788903261371</v>
+        <v>32.64886048907145</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1590,7 +1584,7 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1611,13 +1605,13 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>4.042099235411762</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>27.0308043145984</v>
+        <v>53.45682589110297</v>
       </c>
       <c r="L27">
-        <v>58.66921769901004</v>
+        <v>67.97633861664478</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1628,7 +1622,7 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D28">
         <v>3.197683</v>
@@ -1666,7 +1660,7 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D29">
         <v>21.712536</v>
@@ -1675,7 +1669,7 @@
         <v>18.61074514285714</v>
       </c>
       <c r="F29">
-        <v>15.50895428571428</v>
+        <v>15.50895428571429</v>
       </c>
       <c r="G29">
         <v>12.40716342857143</v>
@@ -1704,25 +1698,25 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D30">
         <v>13.739781</v>
       </c>
       <c r="E30">
-        <v>32.98110845714285</v>
+        <v>32.98110845714286</v>
       </c>
       <c r="F30">
-        <v>63.97243591428574</v>
+        <v>63.97243591428572</v>
       </c>
       <c r="G30">
-        <v>64.85709580717501</v>
+        <v>64.857095807175</v>
       </c>
       <c r="H30">
-        <v>24.525792532125</v>
+        <v>35.10327749778128</v>
       </c>
       <c r="I30">
-        <v>43.13425099300714</v>
+        <v>34.25824988614286</v>
       </c>
       <c r="J30">
         <v>11.75680848365357</v>
@@ -1731,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>7.558931202932191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1742,7 +1736,7 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D31">
         <v>550.08</v>
@@ -1754,22 +1748,22 @@
         <v>1530.69</v>
       </c>
       <c r="G31">
-        <v>2485.621673985704</v>
+        <v>2427.131599185309</v>
       </c>
       <c r="H31">
-        <v>2858.481600123087</v>
+        <v>2716.485383452643</v>
       </c>
       <c r="I31">
-        <v>2403.360516768668</v>
+        <v>2591.258078069028</v>
       </c>
       <c r="J31">
-        <v>2366.954305964831</v>
+        <v>2569.840679880926</v>
       </c>
       <c r="K31">
-        <v>3108.242598298114</v>
+        <v>2515.312238504426</v>
       </c>
       <c r="L31">
-        <v>2022.137946924475</v>
+        <v>2654.347415157264</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1780,7 +1774,7 @@
         <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1792,22 +1786,22 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>3.896840619514138</v>
       </c>
       <c r="H32">
-        <v>127.1762854960195</v>
+        <v>297.6337756870942</v>
       </c>
       <c r="I32">
-        <v>727.8421567468482</v>
+        <v>568.0774641597168</v>
       </c>
       <c r="J32">
-        <v>794.8751970764959</v>
+        <v>645.3132154199792</v>
       </c>
       <c r="K32">
-        <v>199.7068431143661</v>
+        <v>783.0350392258241</v>
       </c>
       <c r="L32">
-        <v>1535.051069892611</v>
+        <v>904.3004035068338</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1818,7 +1812,7 @@
         <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1827,25 +1821,25 @@
         <v>126.62</v>
       </c>
       <c r="F33">
-        <v>259.5700000000001</v>
+        <v>259.5699999999999</v>
       </c>
       <c r="G33">
-        <v>982.2240247096801</v>
+        <v>949.4657307697779</v>
       </c>
       <c r="H33">
-        <v>1962.500068276179</v>
+        <v>1958.32073186712</v>
       </c>
       <c r="I33">
-        <v>2655.83343548513</v>
+        <v>2640.713604251857</v>
       </c>
       <c r="J33">
-        <v>3044.771659227833</v>
+        <v>4000.285677796234</v>
       </c>
       <c r="K33">
-        <v>3781.672246701388</v>
+        <v>4571.424349231049</v>
       </c>
       <c r="L33">
-        <v>4911.10070921631</v>
+        <v>4688.84843699779</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1856,7 +1850,7 @@
         <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1868,22 +1862,22 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>12.21825440203004</v>
       </c>
       <c r="H34">
-        <v>149.960310584883</v>
+        <v>125.9035218609882</v>
       </c>
       <c r="I34">
-        <v>470.2595994202774</v>
+        <v>1545.377941843973</v>
       </c>
       <c r="J34">
-        <v>1221.815134368446</v>
+        <v>1910.592365779908</v>
       </c>
       <c r="K34">
-        <v>1201.098598114481</v>
+        <v>2142.087447886781</v>
       </c>
       <c r="L34">
-        <v>909.7476310294808</v>
+        <v>2893.644717760116</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1894,34 +1888,34 @@
         <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D35">
-        <v>4.830263455478399</v>
+        <v>164.23</v>
       </c>
       <c r="E35">
-        <v>2.4820497353088</v>
+        <v>361.6799999999999</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>583.6799999999998</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1422.990015079094</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2019.950331072982</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>2208.329866663309</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1766.40960421209</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1319.723259454988</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>1196.264499416011</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1929,37 +1923,37 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D36">
-        <v>159.3997365445215</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>359.1979502646911</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>583.6799999999999</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>1406.094709572</v>
+        <v>3.861689692906301</v>
       </c>
       <c r="H36">
-        <v>2005.628030575069</v>
+        <v>230.8739645141947</v>
       </c>
       <c r="I36">
-        <v>2470.017475985833</v>
+        <v>544.7906388235772</v>
       </c>
       <c r="J36">
-        <v>2683.010137291486</v>
+        <v>968.2723871719669</v>
       </c>
       <c r="K36">
-        <v>1774.988361346964</v>
+        <v>1412.687230166287</v>
       </c>
       <c r="L36">
-        <v>1407.220024766518</v>
+        <v>1691.734931161395</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1970,34 +1964,34 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1.053824976402666</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>12.26729255300809</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>12.44306259140809</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>11.26921382772484</v>
       </c>
       <c r="H37">
-        <v>127.1762854960195</v>
+        <v>10.05868158566332</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>6.716098175011249</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>872.9785367715823</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>1263.5559162517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2008,34 +2002,34 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1.686175023597334</v>
       </c>
       <c r="E38">
-        <v>8.165391908303427</v>
+        <v>7.862707446991916</v>
       </c>
       <c r="F38">
-        <v>8.480085347259891</v>
+        <v>8.016937408591913</v>
       </c>
       <c r="G38">
-        <v>8.221267393103425</v>
+        <v>7.617839880446069</v>
       </c>
       <c r="H38">
-        <v>8.87213795096914</v>
+        <v>7.327119755136687</v>
       </c>
       <c r="I38">
-        <v>8.208066423503425</v>
+        <v>7.328450574336687</v>
       </c>
       <c r="J38">
-        <v>0.06596700479999859</v>
+        <v>7.349568388664125</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>7.327119755137184</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>0.140984841599997</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2046,7 +2040,7 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2061,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>0.004484419199999905</v>
       </c>
       <c r="I39">
-        <v>0.01761600959999963</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>0.139654022399997</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>0.001330819199999972</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -2084,34 +2078,34 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D40">
-        <v>2.74</v>
+        <v>1.72</v>
       </c>
       <c r="E40">
-        <v>11.96460809169657</v>
+        <v>1.76</v>
       </c>
       <c r="F40">
-        <v>11.97991465274011</v>
+        <v>1.85</v>
       </c>
       <c r="G40">
-        <v>11.96460809169658</v>
+        <v>7.794563904000001</v>
       </c>
       <c r="H40">
-        <v>12.707590682197</v>
+        <v>0.7854986880000009</v>
       </c>
       <c r="I40">
-        <v>11.97353691896974</v>
+        <v>0.6042297600000006</v>
       </c>
       <c r="J40">
-        <v>12.33928825383086</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>11.98246574624737</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>0.1483014433105515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2122,25 +2116,25 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D41">
-        <v>0.0729444266666667</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>0.06280218666666677</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.08450543013836487</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>4.580919360000001</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>4.98962592</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>4.98962592</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2160,34 +2154,34 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D42">
-        <v>1.647055573333333</v>
+        <v>25.08</v>
       </c>
       <c r="E42">
-        <v>1.697197813333333</v>
+        <v>27.17</v>
       </c>
       <c r="F42">
-        <v>1.765494569861636</v>
+        <v>29.25999999999999</v>
       </c>
       <c r="G42">
-        <v>6.950128801811322</v>
+        <v>18.385834896</v>
       </c>
       <c r="H42">
-        <v>0.8029065600000007</v>
+        <v>24.42731256</v>
       </c>
       <c r="I42">
-        <v>0.6042297600000006</v>
+        <v>16.947730224</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>46.28176056</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>27.42398942400001</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>44.71675502400001</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2198,34 +2192,34 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>175.75</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>190.475</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>205.2</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>53.56108929600001</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>69.856749648</v>
       </c>
       <c r="I43">
-        <v>3.385739530668654E-07</v>
+        <v>48.1212680544</v>
       </c>
       <c r="J43">
-        <v>1.852343008264349E-07</v>
+        <v>57.27089182982626</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>57.47716329898516</v>
       </c>
       <c r="L43">
-        <v>3.410273872008681E-07</v>
+        <v>138.6472378839295</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2236,34 +2230,34 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D44">
-        <v>25.08</v>
+        <v>116.85</v>
       </c>
       <c r="E44">
-        <v>27.17</v>
+        <v>126.825</v>
       </c>
       <c r="F44">
-        <v>29.25999999999999</v>
+        <v>136.8</v>
       </c>
       <c r="G44">
-        <v>18.385834896</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>24.42731256</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>16.947730224</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>7.857194400000001</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>27.42398942400001</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>57.90671856000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2274,34 +2268,34 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D45">
-        <v>185</v>
+        <v>37.525</v>
       </c>
       <c r="E45">
-        <v>190.475</v>
+        <v>46.8825</v>
       </c>
       <c r="F45">
-        <v>205.2</v>
+        <v>56.23999999999999</v>
       </c>
       <c r="G45">
-        <v>53.56108929600001</v>
+        <v>59.32441943999999</v>
       </c>
       <c r="H45">
-        <v>69.856749648</v>
+        <v>45.5466564</v>
       </c>
       <c r="I45">
-        <v>48.1212680544</v>
+        <v>22.78586376000001</v>
       </c>
       <c r="J45">
-        <v>14.6343817152</v>
+        <v>31.40263527825011</v>
       </c>
       <c r="K45">
-        <v>24.69104274353712</v>
+        <v>24.69063816</v>
       </c>
       <c r="L45">
-        <v>138.8767856259448</v>
+        <v>29.54962038427944</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2312,16 +2306,16 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D46">
-        <v>116.85</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>126.825</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>136.8</v>
+        <v>0</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -2339,82 +2333,6 @@
         <v>0</v>
       </c>
       <c r="L46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" t="s">
-        <v>56</v>
-      </c>
-      <c r="D47">
-        <v>37.525</v>
-      </c>
-      <c r="E47">
-        <v>46.8825</v>
-      </c>
-      <c r="F47">
-        <v>56.23999999999999</v>
-      </c>
-      <c r="G47">
-        <v>59.32441944</v>
-      </c>
-      <c r="H47">
-        <v>45.5466564</v>
-      </c>
-      <c r="I47">
-        <v>22.78586376000001</v>
-      </c>
-      <c r="J47">
-        <v>3.291467826375551</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>35.07378732</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" t="s">
-        <v>56</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
         <v>4.761936</v>
       </c>
     </row>
